--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp8a-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp8a-Acvr2b.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2165933333333333</v>
+        <v>0.7467663333333333</v>
       </c>
       <c r="H2">
-        <v>0.6497799999999999</v>
+        <v>2.240299</v>
       </c>
       <c r="I2">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937625</v>
       </c>
       <c r="J2">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937624</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.455462333333333</v>
+        <v>0.978762</v>
       </c>
       <c r="N2">
-        <v>4.366387</v>
+        <v>2.936286</v>
       </c>
       <c r="O2">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="P2">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="Q2">
-        <v>0.3152434383177777</v>
+        <v>0.730906509946</v>
       </c>
       <c r="R2">
-        <v>2.837190944859999</v>
+        <v>6.578158589514</v>
       </c>
       <c r="S2">
-        <v>0.03824822467885608</v>
+        <v>0.1484289064988435</v>
       </c>
       <c r="T2">
-        <v>0.03824822467885609</v>
+        <v>0.1484289064988435</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2165933333333333</v>
+        <v>0.7467663333333333</v>
       </c>
       <c r="H3">
-        <v>0.6497799999999999</v>
+        <v>2.240299</v>
       </c>
       <c r="I3">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937625</v>
       </c>
       <c r="J3">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937624</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>0.312473</v>
       </c>
       <c r="O3">
-        <v>0.02139798360848153</v>
+        <v>0.0406458950147437</v>
       </c>
       <c r="P3">
-        <v>0.02139798360848154</v>
+        <v>0.04064589501474371</v>
       </c>
       <c r="Q3">
-        <v>0.02255985621555555</v>
+        <v>0.07778143882522222</v>
       </c>
       <c r="R3">
-        <v>0.20303870594</v>
+        <v>0.7000329494269999</v>
       </c>
       <c r="S3">
-        <v>0.002737168627076848</v>
+        <v>0.01579547281852419</v>
       </c>
       <c r="T3">
-        <v>0.002737168627076849</v>
+        <v>0.01579547281852419</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2165933333333333</v>
+        <v>0.7467663333333333</v>
       </c>
       <c r="H4">
-        <v>0.6497799999999999</v>
+        <v>2.240299</v>
       </c>
       <c r="I4">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937625</v>
       </c>
       <c r="J4">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937624</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.7055843333333334</v>
+        <v>0.3139526666666667</v>
       </c>
       <c r="N4">
-        <v>2.116753</v>
+        <v>0.9418580000000001</v>
       </c>
       <c r="O4">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="P4">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="Q4">
-        <v>0.1528248627044444</v>
+        <v>0.2344492817268889</v>
       </c>
       <c r="R4">
-        <v>1.37542376434</v>
+        <v>2.110043535542</v>
       </c>
       <c r="S4">
-        <v>0.01854211372781264</v>
+        <v>0.04761080937524063</v>
       </c>
       <c r="T4">
-        <v>0.01854211372781265</v>
+        <v>0.04761080937524062</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2165933333333333</v>
+        <v>0.7467663333333333</v>
       </c>
       <c r="H5">
-        <v>0.6497799999999999</v>
+        <v>2.240299</v>
       </c>
       <c r="I5">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937625</v>
       </c>
       <c r="J5">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937624</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.409595</v>
+        <v>0.5829876666666666</v>
       </c>
       <c r="N5">
-        <v>4.228785</v>
+        <v>1.748963</v>
       </c>
       <c r="O5">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="P5">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="Q5">
-        <v>0.3053088797</v>
+        <v>0.4353555622152221</v>
       </c>
       <c r="R5">
-        <v>2.7477799173</v>
+        <v>3.918200059936999</v>
       </c>
       <c r="S5">
-        <v>0.03704287292871118</v>
+        <v>0.08840987069956294</v>
       </c>
       <c r="T5">
-        <v>0.03704287292871119</v>
+        <v>0.08840987069956294</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2165933333333333</v>
+        <v>0.7467663333333333</v>
       </c>
       <c r="H6">
-        <v>0.6497799999999999</v>
+        <v>2.240299</v>
       </c>
       <c r="I6">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937625</v>
       </c>
       <c r="J6">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937624</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,28 +809,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.245191</v>
+        <v>0.3019996666666667</v>
       </c>
       <c r="N6">
-        <v>0.735573</v>
+        <v>0.905999</v>
       </c>
       <c r="O6">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="P6">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="Q6">
-        <v>0.05310673599333333</v>
+        <v>0.2255231837445555</v>
       </c>
       <c r="R6">
-        <v>0.4779606239399999</v>
+        <v>2.029708653701</v>
       </c>
       <c r="S6">
-        <v>0.006443396192710405</v>
+        <v>0.04579814120935281</v>
       </c>
       <c r="T6">
-        <v>0.006443396192710406</v>
+        <v>0.04579814120935281</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.2165933333333333</v>
+        <v>0.7467663333333333</v>
       </c>
       <c r="H7">
-        <v>0.6497799999999999</v>
+        <v>2.240299</v>
       </c>
       <c r="I7">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937625</v>
       </c>
       <c r="J7">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937624</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9476490000000001</v>
+        <v>0.2807033333333333</v>
       </c>
       <c r="N7">
-        <v>2.842947</v>
+        <v>0.8421099999999999</v>
       </c>
       <c r="O7">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449175</v>
       </c>
       <c r="P7">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449176</v>
       </c>
       <c r="Q7">
-        <v>0.20525445574</v>
+        <v>0.2096197989877777</v>
       </c>
       <c r="R7">
-        <v>1.84729010166</v>
+        <v>1.88657819089</v>
       </c>
       <c r="S7">
-        <v>0.02490335272757084</v>
+        <v>0.0425685598922384</v>
       </c>
       <c r="T7">
-        <v>0.02490335272757085</v>
+        <v>0.0425685598922384</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1.060375</v>
       </c>
       <c r="I8">
-        <v>0.2087477693050469</v>
+        <v>0.1839371421107511</v>
       </c>
       <c r="J8">
-        <v>0.2087477693050469</v>
+        <v>0.183937142110751</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.455462333333333</v>
+        <v>0.978762</v>
       </c>
       <c r="N8">
-        <v>4.366387</v>
+        <v>2.936286</v>
       </c>
       <c r="O8">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="P8">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="Q8">
-        <v>0.5144452905694444</v>
+        <v>0.34595158525</v>
       </c>
       <c r="R8">
-        <v>4.630007615125</v>
+        <v>3.11356426725</v>
       </c>
       <c r="S8">
-        <v>0.06241722004961991</v>
+        <v>0.07025414988298939</v>
       </c>
       <c r="T8">
-        <v>0.06241722004961993</v>
+        <v>0.07025414988298938</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1.060375</v>
       </c>
       <c r="I9">
-        <v>0.2087477693050469</v>
+        <v>0.1839371421107511</v>
       </c>
       <c r="J9">
-        <v>0.2087477693050469</v>
+        <v>0.183937142110751</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1001,10 +1001,10 @@
         <v>0.312473</v>
       </c>
       <c r="O9">
-        <v>0.02139798360848153</v>
+        <v>0.0406458950147437</v>
       </c>
       <c r="P9">
-        <v>0.02139798360848154</v>
+        <v>0.04064589501474371</v>
       </c>
       <c r="Q9">
         <v>0.03681539526388889</v>
@@ -1013,10 +1013,10 @@
         <v>0.331338557375</v>
       </c>
       <c r="S9">
-        <v>0.004466781345896478</v>
+        <v>0.007476289767545581</v>
       </c>
       <c r="T9">
-        <v>0.004466781345896479</v>
+        <v>0.00747628976754558</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>1.060375</v>
       </c>
       <c r="I10">
-        <v>0.2087477693050469</v>
+        <v>0.1839371421107511</v>
       </c>
       <c r="J10">
-        <v>0.2087477693050469</v>
+        <v>0.183937142110751</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.7055843333333334</v>
+        <v>0.3139526666666667</v>
       </c>
       <c r="N10">
-        <v>2.116753</v>
+        <v>0.9418580000000001</v>
       </c>
       <c r="O10">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="P10">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="Q10">
-        <v>0.2493946624861111</v>
+        <v>0.1109691863055556</v>
       </c>
       <c r="R10">
-        <v>2.244551962375</v>
+        <v>0.9987226767500001</v>
       </c>
       <c r="S10">
-        <v>0.03025884737007808</v>
+        <v>0.02253507767993058</v>
       </c>
       <c r="T10">
-        <v>0.03025884737007809</v>
+        <v>0.02253507767993057</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1.060375</v>
       </c>
       <c r="I11">
-        <v>0.2087477693050469</v>
+        <v>0.1839371421107511</v>
       </c>
       <c r="J11">
-        <v>0.2087477693050469</v>
+        <v>0.183937142110751</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.409595</v>
+        <v>0.5829876666666666</v>
       </c>
       <c r="N11">
-        <v>4.228785</v>
+        <v>1.748963</v>
       </c>
       <c r="O11">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="P11">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="Q11">
-        <v>0.4982330993750001</v>
+        <v>0.2060618490138889</v>
       </c>
       <c r="R11">
-        <v>4.484097894375001</v>
+        <v>1.854556641125</v>
       </c>
       <c r="S11">
-        <v>0.06045020835018334</v>
+        <v>0.04184602887518544</v>
       </c>
       <c r="T11">
-        <v>0.06045020835018335</v>
+        <v>0.04184602887518544</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1.060375</v>
       </c>
       <c r="I12">
-        <v>0.2087477693050469</v>
+        <v>0.1839371421107511</v>
       </c>
       <c r="J12">
-        <v>0.2087477693050469</v>
+        <v>0.183937142110751</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.245191</v>
+        <v>0.3019996666666667</v>
       </c>
       <c r="N12">
-        <v>0.735573</v>
+        <v>0.905999</v>
       </c>
       <c r="O12">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="P12">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="Q12">
-        <v>0.08666480220833335</v>
+        <v>0.1067442988472222</v>
       </c>
       <c r="R12">
-        <v>0.7799832198750001</v>
+        <v>0.960698689625</v>
       </c>
       <c r="S12">
-        <v>0.01051496850910354</v>
+        <v>0.0216771082720956</v>
       </c>
       <c r="T12">
-        <v>0.01051496850910354</v>
+        <v>0.0216771082720956</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1.060375</v>
       </c>
       <c r="I13">
-        <v>0.2087477693050469</v>
+        <v>0.1839371421107511</v>
       </c>
       <c r="J13">
-        <v>0.2087477693050469</v>
+        <v>0.183937142110751</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.9476490000000001</v>
+        <v>0.2807033333333333</v>
       </c>
       <c r="N13">
-        <v>2.842947</v>
+        <v>0.8421099999999999</v>
       </c>
       <c r="O13">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449175</v>
       </c>
       <c r="P13">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449176</v>
       </c>
       <c r="Q13">
-        <v>0.3349544361250001</v>
+        <v>0.09921693236111111</v>
       </c>
       <c r="R13">
-        <v>3.014589925125</v>
+        <v>0.8929523912499999</v>
       </c>
       <c r="S13">
-        <v>0.04063974368016551</v>
+        <v>0.02014848763300448</v>
       </c>
       <c r="T13">
-        <v>0.04063974368016551</v>
+        <v>0.02014848763300448</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.2062163333333333</v>
+        <v>0.2591836666666666</v>
       </c>
       <c r="H14">
-        <v>0.618649</v>
+        <v>0.777551</v>
       </c>
       <c r="I14">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="J14">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.455462333333333</v>
+        <v>0.978762</v>
       </c>
       <c r="N14">
-        <v>4.366387</v>
+        <v>2.936286</v>
       </c>
       <c r="O14">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="P14">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="Q14">
-        <v>0.3001401056847777</v>
+        <v>0.253679123954</v>
       </c>
       <c r="R14">
-        <v>2.701260951163</v>
+        <v>2.283112115586</v>
       </c>
       <c r="S14">
-        <v>0.0364157498681856</v>
+        <v>0.05151591134803091</v>
       </c>
       <c r="T14">
-        <v>0.03641574986818561</v>
+        <v>0.0515159113480309</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.2062163333333333</v>
+        <v>0.2591836666666666</v>
       </c>
       <c r="H15">
-        <v>0.618649</v>
+        <v>0.777551</v>
       </c>
       <c r="I15">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="J15">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1373,22 +1373,22 @@
         <v>0.312473</v>
       </c>
       <c r="O15">
-        <v>0.02139798360848153</v>
+        <v>0.0406458950147437</v>
       </c>
       <c r="P15">
-        <v>0.02139798360848154</v>
+        <v>0.04064589501474371</v>
       </c>
       <c r="Q15">
-        <v>0.02147901210855556</v>
+        <v>0.02699596595811111</v>
       </c>
       <c r="R15">
-        <v>0.193311108977</v>
+        <v>0.242963693623</v>
       </c>
       <c r="S15">
-        <v>0.002606030708812929</v>
+        <v>0.005482208261270619</v>
       </c>
       <c r="T15">
-        <v>0.00260603070881293</v>
+        <v>0.005482208261270619</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.2062163333333333</v>
+        <v>0.2591836666666666</v>
       </c>
       <c r="H16">
-        <v>0.618649</v>
+        <v>0.777551</v>
       </c>
       <c r="I16">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="J16">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.7055843333333334</v>
+        <v>0.3139526666666667</v>
       </c>
       <c r="N16">
-        <v>2.116753</v>
+        <v>0.9418580000000001</v>
       </c>
       <c r="O16">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="P16">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="Q16">
-        <v>0.1455030140774445</v>
+        <v>0.08137140330644445</v>
       </c>
       <c r="R16">
-        <v>1.309527126697</v>
+        <v>0.732342629758</v>
       </c>
       <c r="S16">
-        <v>0.01765375991196646</v>
+        <v>0.01652450518458818</v>
       </c>
       <c r="T16">
-        <v>0.01765375991196646</v>
+        <v>0.01652450518458818</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.2062163333333333</v>
+        <v>0.2591836666666666</v>
       </c>
       <c r="H17">
-        <v>0.618649</v>
+        <v>0.777551</v>
       </c>
       <c r="I17">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="J17">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.409595</v>
+        <v>0.5829876666666666</v>
       </c>
       <c r="N17">
-        <v>4.228785</v>
+        <v>1.748963</v>
       </c>
       <c r="O17">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="P17">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="Q17">
-        <v>0.290681512385</v>
+        <v>0.1511008810681111</v>
       </c>
       <c r="R17">
-        <v>2.616133611465</v>
+        <v>1.359907929613</v>
       </c>
       <c r="S17">
-        <v>0.03526814659496175</v>
+        <v>0.03068482527212477</v>
       </c>
       <c r="T17">
-        <v>0.03526814659496176</v>
+        <v>0.03068482527212478</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.2062163333333333</v>
+        <v>0.2591836666666666</v>
       </c>
       <c r="H18">
-        <v>0.618649</v>
+        <v>0.777551</v>
       </c>
       <c r="I18">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="J18">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1553,28 +1553,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.245191</v>
+        <v>0.3019996666666667</v>
       </c>
       <c r="N18">
-        <v>0.735573</v>
+        <v>0.905999</v>
       </c>
       <c r="O18">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="P18">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="Q18">
-        <v>0.05056238898633334</v>
+        <v>0.07827338093877777</v>
       </c>
       <c r="R18">
-        <v>0.455061500877</v>
+        <v>0.704460428449</v>
       </c>
       <c r="S18">
-        <v>0.006134692682483457</v>
+        <v>0.01589537400832366</v>
       </c>
       <c r="T18">
-        <v>0.006134692682483458</v>
+        <v>0.01589537400832366</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.2062163333333333</v>
+        <v>0.2591836666666666</v>
       </c>
       <c r="H19">
-        <v>0.618649</v>
+        <v>0.777551</v>
       </c>
       <c r="I19">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="J19">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.9476490000000001</v>
+        <v>0.2807033333333333</v>
       </c>
       <c r="N19">
-        <v>2.842947</v>
+        <v>0.8421099999999999</v>
       </c>
       <c r="O19">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449175</v>
       </c>
       <c r="P19">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449176</v>
       </c>
       <c r="Q19">
-        <v>0.195420702067</v>
+        <v>0.07275371917888887</v>
       </c>
       <c r="R19">
-        <v>1.758786318603</v>
+        <v>0.6547834726099999</v>
       </c>
       <c r="S19">
-        <v>0.02371023155769488</v>
+        <v>0.01477446819052718</v>
       </c>
       <c r="T19">
-        <v>0.02371023155769488</v>
+        <v>0.01477446819052718</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.5350026666666666</v>
+        <v>0.083565</v>
       </c>
       <c r="H20">
-        <v>1.605008</v>
+        <v>0.250695</v>
       </c>
       <c r="I20">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="J20">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.455462333333333</v>
+        <v>0.978762</v>
       </c>
       <c r="N20">
-        <v>4.366387</v>
+        <v>2.936286</v>
       </c>
       <c r="O20">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="P20">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="Q20">
-        <v>0.7786762295662221</v>
+        <v>0.08179024653</v>
       </c>
       <c r="R20">
-        <v>7.008086066095999</v>
+        <v>0.73611221877</v>
       </c>
       <c r="S20">
-        <v>0.09447614053273637</v>
+        <v>0.01660956181060099</v>
       </c>
       <c r="T20">
-        <v>0.09447614053273641</v>
+        <v>0.01660956181060098</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.5350026666666666</v>
+        <v>0.083565</v>
       </c>
       <c r="H21">
-        <v>1.605008</v>
+        <v>0.250695</v>
       </c>
       <c r="I21">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="J21">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1745,22 +1745,22 @@
         <v>0.312473</v>
       </c>
       <c r="O21">
-        <v>0.02139798360848153</v>
+        <v>0.0406458950147437</v>
       </c>
       <c r="P21">
-        <v>0.02139798360848154</v>
+        <v>0.04064589501474371</v>
       </c>
       <c r="Q21">
-        <v>0.05572462942044444</v>
+        <v>0.008703935414999999</v>
       </c>
       <c r="R21">
-        <v>0.501521664784</v>
+        <v>0.078335418735</v>
       </c>
       <c r="S21">
-        <v>0.006761023029036532</v>
+        <v>0.001767552482164177</v>
       </c>
       <c r="T21">
-        <v>0.006761023029036535</v>
+        <v>0.001767552482164177</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.5350026666666666</v>
+        <v>0.083565</v>
       </c>
       <c r="H22">
-        <v>1.605008</v>
+        <v>0.250695</v>
       </c>
       <c r="I22">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="J22">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.7055843333333334</v>
+        <v>0.3139526666666667</v>
       </c>
       <c r="N22">
-        <v>2.116753</v>
+        <v>0.9418580000000001</v>
       </c>
       <c r="O22">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="P22">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="Q22">
-        <v>0.3774894998915556</v>
+        <v>0.02623545459000001</v>
       </c>
       <c r="R22">
-        <v>3.397405499024</v>
+        <v>0.23611909131</v>
       </c>
       <c r="S22">
-        <v>0.04580048765743654</v>
+        <v>0.00532776734548645</v>
       </c>
       <c r="T22">
-        <v>0.04580048765743655</v>
+        <v>0.005327767345486449</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.5350026666666666</v>
+        <v>0.083565</v>
       </c>
       <c r="H23">
-        <v>1.605008</v>
+        <v>0.250695</v>
       </c>
       <c r="I23">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="J23">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.409595</v>
+        <v>0.5829876666666666</v>
       </c>
       <c r="N23">
-        <v>4.228785</v>
+        <v>1.748963</v>
       </c>
       <c r="O23">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="P23">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="Q23">
-        <v>0.75413708392</v>
+        <v>0.04871736436499999</v>
       </c>
       <c r="R23">
-        <v>6.78723375528</v>
+        <v>0.438456279285</v>
       </c>
       <c r="S23">
-        <v>0.0914988263620993</v>
+        <v>0.00989328323363396</v>
       </c>
       <c r="T23">
-        <v>0.09149882636209931</v>
+        <v>0.009893283233633962</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,22 +1901,22 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.5350026666666666</v>
+        <v>0.083565</v>
       </c>
       <c r="H24">
-        <v>1.605008</v>
+        <v>0.250695</v>
       </c>
       <c r="I24">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="J24">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1925,28 +1925,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.245191</v>
+        <v>0.3019996666666667</v>
       </c>
       <c r="N24">
-        <v>0.735573</v>
+        <v>0.905999</v>
       </c>
       <c r="O24">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="P24">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="Q24">
-        <v>0.1311778388426667</v>
+        <v>0.025236602145</v>
       </c>
       <c r="R24">
-        <v>1.180600549584</v>
+        <v>0.227129419305</v>
       </c>
       <c r="S24">
-        <v>0.01591569829245243</v>
+        <v>0.005124925293667811</v>
       </c>
       <c r="T24">
-        <v>0.01591569829245244</v>
+        <v>0.005124925293667811</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.5350026666666666</v>
+        <v>0.083565</v>
       </c>
       <c r="H25">
-        <v>1.605008</v>
+        <v>0.250695</v>
       </c>
       <c r="I25">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="J25">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.9476490000000001</v>
+        <v>0.2807033333333333</v>
       </c>
       <c r="N25">
-        <v>2.842947</v>
+        <v>0.8421099999999999</v>
       </c>
       <c r="O25">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449175</v>
       </c>
       <c r="P25">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449176</v>
       </c>
       <c r="Q25">
-        <v>0.506994742064</v>
+        <v>0.02345697405</v>
       </c>
       <c r="R25">
-        <v>4.562952678576</v>
+        <v>0.21111276645</v>
       </c>
       <c r="S25">
-        <v>0.06151325118435937</v>
+        <v>0.004763527155163086</v>
       </c>
       <c r="T25">
-        <v>0.06151325118435938</v>
+        <v>0.004763527155163086</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.195893</v>
+        <v>0.131641</v>
       </c>
       <c r="H26">
-        <v>0.5876790000000001</v>
+        <v>0.394923</v>
       </c>
       <c r="I26">
-        <v>0.1156917885817948</v>
+        <v>0.0685050175398365</v>
       </c>
       <c r="J26">
-        <v>0.1156917885817948</v>
+        <v>0.06850501753983648</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.455462333333333</v>
+        <v>0.978762</v>
       </c>
       <c r="N26">
-        <v>4.366387</v>
+        <v>2.936286</v>
       </c>
       <c r="O26">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="P26">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="Q26">
-        <v>0.2851148828636667</v>
+        <v>0.128845208442</v>
       </c>
       <c r="R26">
-        <v>2.566033945773</v>
+        <v>1.159606875978</v>
       </c>
       <c r="S26">
-        <v>0.03459275205615049</v>
+        <v>0.02616525251372374</v>
       </c>
       <c r="T26">
-        <v>0.03459275205615051</v>
+        <v>0.02616525251372374</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.195893</v>
+        <v>0.131641</v>
       </c>
       <c r="H27">
-        <v>0.5876790000000001</v>
+        <v>0.394923</v>
       </c>
       <c r="I27">
-        <v>0.1156917885817948</v>
+        <v>0.0685050175398365</v>
       </c>
       <c r="J27">
-        <v>0.1156917885817948</v>
+        <v>0.06850501753983648</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2117,22 +2117,22 @@
         <v>0.312473</v>
       </c>
       <c r="O27">
-        <v>0.02139798360848153</v>
+        <v>0.0406458950147437</v>
       </c>
       <c r="P27">
-        <v>0.02139798360848154</v>
+        <v>0.04064589501474371</v>
       </c>
       <c r="Q27">
-        <v>0.02040375779633333</v>
+        <v>0.01371141939766666</v>
       </c>
       <c r="R27">
-        <v>0.183633820167</v>
+        <v>0.123402774579</v>
       </c>
       <c r="S27">
-        <v>0.002475570995709156</v>
+        <v>0.00278444775090737</v>
       </c>
       <c r="T27">
-        <v>0.002475570995709157</v>
+        <v>0.00278444775090737</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.195893</v>
+        <v>0.131641</v>
       </c>
       <c r="H28">
-        <v>0.5876790000000001</v>
+        <v>0.394923</v>
       </c>
       <c r="I28">
-        <v>0.1156917885817948</v>
+        <v>0.0685050175398365</v>
       </c>
       <c r="J28">
-        <v>0.1156917885817948</v>
+        <v>0.06850501753983648</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.7055843333333334</v>
+        <v>0.3139526666666667</v>
       </c>
       <c r="N28">
-        <v>2.116753</v>
+        <v>0.9418580000000001</v>
       </c>
       <c r="O28">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="P28">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="Q28">
-        <v>0.1382190318096667</v>
+        <v>0.04132904299266667</v>
       </c>
       <c r="R28">
-        <v>1.243971286287</v>
+        <v>0.371961386934</v>
       </c>
       <c r="S28">
-        <v>0.0167700003900508</v>
+        <v>0.008392899193767508</v>
       </c>
       <c r="T28">
-        <v>0.0167700003900508</v>
+        <v>0.008392899193767506</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.195893</v>
+        <v>0.131641</v>
       </c>
       <c r="H29">
-        <v>0.5876790000000001</v>
+        <v>0.394923</v>
       </c>
       <c r="I29">
-        <v>0.1156917885817948</v>
+        <v>0.0685050175398365</v>
       </c>
       <c r="J29">
-        <v>0.1156917885817948</v>
+        <v>0.06850501753983648</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.409595</v>
+        <v>0.5829876666666666</v>
       </c>
       <c r="N29">
-        <v>4.228785</v>
+        <v>1.748963</v>
       </c>
       <c r="O29">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="P29">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="Q29">
-        <v>0.276129793335</v>
+        <v>0.07674507942766665</v>
       </c>
       <c r="R29">
-        <v>2.485168140015</v>
+        <v>0.6907057148489999</v>
       </c>
       <c r="S29">
-        <v>0.03350259860240707</v>
+        <v>0.01558501403887762</v>
       </c>
       <c r="T29">
-        <v>0.03350259860240708</v>
+        <v>0.01558501403887762</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.195893</v>
+        <v>0.131641</v>
       </c>
       <c r="H30">
-        <v>0.5876790000000001</v>
+        <v>0.394923</v>
       </c>
       <c r="I30">
-        <v>0.1156917885817948</v>
+        <v>0.0685050175398365</v>
       </c>
       <c r="J30">
-        <v>0.1156917885817948</v>
+        <v>0.06850501753983648</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -2297,28 +2297,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M30">
-        <v>0.245191</v>
+        <v>0.3019996666666667</v>
       </c>
       <c r="N30">
-        <v>0.735573</v>
+        <v>0.905999</v>
       </c>
       <c r="O30">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="P30">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="Q30">
-        <v>0.048031200563</v>
+        <v>0.03975553811966666</v>
       </c>
       <c r="R30">
-        <v>0.4322808050670001</v>
+        <v>0.357799843077</v>
       </c>
       <c r="S30">
-        <v>0.005827585692289482</v>
+        <v>0.008073359547462746</v>
       </c>
       <c r="T30">
-        <v>0.005827585692289482</v>
+        <v>0.008073359547462744</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.195893</v>
+        <v>0.131641</v>
       </c>
       <c r="H31">
-        <v>0.5876790000000001</v>
+        <v>0.394923</v>
       </c>
       <c r="I31">
-        <v>0.1156917885817948</v>
+        <v>0.0685050175398365</v>
       </c>
       <c r="J31">
-        <v>0.1156917885817948</v>
+        <v>0.06850501753983648</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.9476490000000001</v>
+        <v>0.2807033333333333</v>
       </c>
       <c r="N31">
-        <v>2.842947</v>
+        <v>0.8421099999999999</v>
       </c>
       <c r="O31">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449175</v>
       </c>
       <c r="P31">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449176</v>
       </c>
       <c r="Q31">
-        <v>0.185637805557</v>
+        <v>0.03695206750333332</v>
       </c>
       <c r="R31">
-        <v>1.670740250013</v>
+        <v>0.3325686075299999</v>
       </c>
       <c r="S31">
-        <v>0.02252328084518777</v>
+        <v>0.007504044495097514</v>
       </c>
       <c r="T31">
-        <v>0.02252328084518778</v>
+        <v>0.007504044495097513</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.186068</v>
+        <v>0.3470113333333333</v>
       </c>
       <c r="H32">
-        <v>0.558204</v>
+        <v>1.041034</v>
       </c>
       <c r="I32">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="J32">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.455462333333333</v>
+        <v>0.978762</v>
       </c>
       <c r="N32">
-        <v>4.366387</v>
+        <v>2.936286</v>
       </c>
       <c r="O32">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="P32">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="Q32">
-        <v>0.2708149654386667</v>
+        <v>0.339641506636</v>
       </c>
       <c r="R32">
-        <v>2.437334688948</v>
+        <v>3.056773559724</v>
       </c>
       <c r="S32">
-        <v>0.03285775494572961</v>
+        <v>0.06897273009009829</v>
       </c>
       <c r="T32">
-        <v>0.03285775494572962</v>
+        <v>0.06897273009009827</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.186068</v>
+        <v>0.3470113333333333</v>
       </c>
       <c r="H33">
-        <v>0.558204</v>
+        <v>1.041034</v>
       </c>
       <c r="I33">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="J33">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -2489,22 +2489,22 @@
         <v>0.312473</v>
       </c>
       <c r="O33">
-        <v>0.02139798360848153</v>
+        <v>0.0406458950147437</v>
       </c>
       <c r="P33">
-        <v>0.02139798360848154</v>
+        <v>0.04064589501474371</v>
       </c>
       <c r="Q33">
-        <v>0.01938040872133334</v>
+        <v>0.03614389078688889</v>
       </c>
       <c r="R33">
-        <v>0.174423678492</v>
+        <v>0.325295017082</v>
       </c>
       <c r="S33">
-        <v>0.002351408901949591</v>
+        <v>0.007339923934331765</v>
       </c>
       <c r="T33">
-        <v>0.002351408901949592</v>
+        <v>0.007339923934331765</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.186068</v>
+        <v>0.3470113333333333</v>
       </c>
       <c r="H34">
-        <v>0.558204</v>
+        <v>1.041034</v>
       </c>
       <c r="I34">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="J34">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="K34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M34">
-        <v>0.7055843333333334</v>
+        <v>0.3139526666666667</v>
       </c>
       <c r="N34">
-        <v>2.116753</v>
+        <v>0.9418580000000001</v>
       </c>
       <c r="O34">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="P34">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="Q34">
-        <v>0.1312866657346667</v>
+        <v>0.1089451334635556</v>
       </c>
       <c r="R34">
-        <v>1.181579991612</v>
+        <v>0.980506201172</v>
       </c>
       <c r="S34">
-        <v>0.0159289021689186</v>
+        <v>0.02212404296352596</v>
       </c>
       <c r="T34">
-        <v>0.01592890216891861</v>
+        <v>0.02212404296352596</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.186068</v>
+        <v>0.3470113333333333</v>
       </c>
       <c r="H35">
-        <v>0.558204</v>
+        <v>1.041034</v>
       </c>
       <c r="I35">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="J35">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.409595</v>
+        <v>0.5829876666666666</v>
       </c>
       <c r="N35">
-        <v>4.228785</v>
+        <v>1.748963</v>
       </c>
       <c r="O35">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="P35">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="Q35">
-        <v>0.2622805224600001</v>
+        <v>0.2023033275268889</v>
       </c>
       <c r="R35">
-        <v>2.36052470214</v>
+        <v>1.820729947742</v>
       </c>
       <c r="S35">
-        <v>0.0318222780638036</v>
+        <v>0.04108276677972396</v>
       </c>
       <c r="T35">
-        <v>0.0318222780638036</v>
+        <v>0.04108276677972397</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.186068</v>
+        <v>0.3470113333333333</v>
       </c>
       <c r="H36">
-        <v>0.558204</v>
+        <v>1.041034</v>
       </c>
       <c r="I36">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="J36">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -2669,28 +2669,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M36">
-        <v>0.245191</v>
+        <v>0.3019996666666667</v>
       </c>
       <c r="N36">
-        <v>0.735573</v>
+        <v>0.905999</v>
       </c>
       <c r="O36">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="P36">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="Q36">
-        <v>0.045622198988</v>
+        <v>0.1047973069962222</v>
       </c>
       <c r="R36">
-        <v>0.410599790892</v>
+        <v>0.943175762966</v>
       </c>
       <c r="S36">
-        <v>0.005535303530973129</v>
+        <v>0.02128172272350137</v>
       </c>
       <c r="T36">
-        <v>0.00553530353097313</v>
+        <v>0.02128172272350137</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.186068</v>
+        <v>0.3470113333333333</v>
       </c>
       <c r="H37">
-        <v>0.558204</v>
+        <v>1.041034</v>
       </c>
       <c r="I37">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="J37">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.9476490000000001</v>
+        <v>0.2807033333333333</v>
       </c>
       <c r="N37">
-        <v>2.842947</v>
+        <v>0.8421099999999999</v>
       </c>
       <c r="O37">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449175</v>
       </c>
       <c r="P37">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449176</v>
       </c>
       <c r="Q37">
-        <v>0.176327154132</v>
+        <v>0.0974072379711111</v>
       </c>
       <c r="R37">
-        <v>1.586944387188</v>
+        <v>0.8766651417399999</v>
       </c>
       <c r="S37">
-        <v>0.02139362723682009</v>
+        <v>0.01978098377888689</v>
       </c>
       <c r="T37">
-        <v>0.02139362723682009</v>
+        <v>0.01978098377888689</v>
       </c>
     </row>
   </sheetData>
